--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1952,28 +1952,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.6678284786085</v>
+        <v>281.9737783599475</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.552490426581</v>
+        <v>385.8089633572251</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.9053755509014</v>
+        <v>348.9878973806917</v>
       </c>
       <c r="AD2" t="n">
-        <v>257667.8284786085</v>
+        <v>281973.7783599475</v>
       </c>
       <c r="AE2" t="n">
-        <v>352552.4904265809</v>
+        <v>385808.9633572251</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.424636935689119e-06</v>
+        <v>6.336474950389715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.4375</v>
       </c>
       <c r="AH2" t="n">
-        <v>318905.3755509014</v>
+        <v>348987.8973806917</v>
       </c>
     </row>
     <row r="3">
@@ -2058,28 +2058,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.2384703795946</v>
+        <v>120.5194118478443</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.0966503175987</v>
+        <v>164.8999762313489</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.9625138662815</v>
+        <v>149.1621539384448</v>
       </c>
       <c r="AD3" t="n">
-        <v>108238.4703795946</v>
+        <v>120519.4118478443</v>
       </c>
       <c r="AE3" t="n">
-        <v>148096.6503175987</v>
+        <v>164899.9762313489</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.843108974873536e-06</v>
+        <v>1.081128141375758e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.601041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>133962.5138662815</v>
+        <v>149162.1539384448</v>
       </c>
     </row>
     <row r="4">
@@ -2164,28 +2164,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.18156410476415</v>
+        <v>95.29191337242159</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.8126857197055</v>
+        <v>130.3825998586088</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.9505627317538</v>
+        <v>117.939067521266</v>
       </c>
       <c r="AD4" t="n">
-        <v>83181.56410476415</v>
+        <v>95291.91337242159</v>
       </c>
       <c r="AE4" t="n">
-        <v>113812.6857197055</v>
+        <v>130382.5998586088</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.037902436142711e-06</v>
+        <v>1.302196213127374e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.159375</v>
       </c>
       <c r="AH4" t="n">
-        <v>102950.5627317538</v>
+        <v>117939.067521266</v>
       </c>
     </row>
     <row r="5">
@@ -2270,28 +2270,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.91474166425526</v>
+        <v>95.02509093191269</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.4476074852261</v>
+        <v>130.0175216241294</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.6203270515825</v>
+        <v>117.6088318410947</v>
       </c>
       <c r="AD5" t="n">
-        <v>82914.74166425526</v>
+        <v>95025.09093191268</v>
       </c>
       <c r="AE5" t="n">
-        <v>113447.6074852261</v>
+        <v>130017.5216241294</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.068684050346348e-06</v>
+        <v>1.307891617662122e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="AH5" t="n">
-        <v>102620.3270515825</v>
+        <v>117608.8318410947</v>
       </c>
     </row>
   </sheetData>
@@ -2567,28 +2567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.2418151454757</v>
+        <v>182.5986472103177</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.8816767350085</v>
+        <v>249.8395247968158</v>
       </c>
       <c r="AC2" t="n">
-        <v>197.0873553063357</v>
+        <v>225.9951912022557</v>
       </c>
       <c r="AD2" t="n">
-        <v>159241.8151454757</v>
+        <v>182598.6472103177</v>
       </c>
       <c r="AE2" t="n">
-        <v>217881.6767350085</v>
+        <v>249839.5247968158</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.550853863201283e-06</v>
+        <v>8.674629807454151e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.454166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>197087.3553063357</v>
+        <v>225995.1912022557</v>
       </c>
     </row>
     <row r="3">
@@ -2673,28 +2673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.95589673214064</v>
+        <v>92.63435751883712</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.7674294309689</v>
+        <v>126.7464146966467</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.1959414291692</v>
+        <v>114.6499147677425</v>
       </c>
       <c r="AD3" t="n">
-        <v>80955.89673214064</v>
+        <v>92634.35751883712</v>
       </c>
       <c r="AE3" t="n">
-        <v>110767.4294309689</v>
+        <v>126746.4146966467</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.029186549040828e-06</v>
+        <v>1.339871439369232e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.236458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>100195.9414291692</v>
+        <v>114649.9147677425</v>
       </c>
     </row>
     <row r="4">
@@ -2779,28 +2779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.21897842970245</v>
+        <v>90.89743921639895</v>
       </c>
       <c r="AB4" t="n">
-        <v>108.3909011821468</v>
+        <v>124.3698864478246</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.04622570093555</v>
+        <v>112.5001990395089</v>
       </c>
       <c r="AD4" t="n">
-        <v>79218.97842970245</v>
+        <v>90897.43921639895</v>
       </c>
       <c r="AE4" t="n">
-        <v>108390.9011821468</v>
+        <v>124369.8864478246</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.152786260994462e-06</v>
+        <v>1.363431452011597e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.197916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>98046.22570093555</v>
+        <v>112500.1990395089</v>
       </c>
     </row>
   </sheetData>
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.17638381489934</v>
+        <v>82.7251671606617</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.75491253283148</v>
+        <v>113.1882232859727</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.32988228411286</v>
+        <v>102.3856981162577</v>
       </c>
       <c r="AD2" t="n">
-        <v>72176.38381489934</v>
+        <v>82725.1671606617</v>
       </c>
       <c r="AE2" t="n">
-        <v>98754.91253283148</v>
+        <v>113188.2232859727</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.981510638271559e-06</v>
+        <v>1.486879057769876e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.5125</v>
       </c>
       <c r="AH2" t="n">
-        <v>89329.88228411286</v>
+        <v>102385.6981162577</v>
       </c>
     </row>
   </sheetData>
@@ -3373,28 +3373,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.45902736025597</v>
+        <v>89.34557206043559</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.3511026022556</v>
+        <v>122.2465533414896</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.10566403814242</v>
+        <v>110.5795138647251</v>
       </c>
       <c r="AD2" t="n">
-        <v>78459.02736025598</v>
+        <v>89345.57206043559</v>
       </c>
       <c r="AE2" t="n">
-        <v>107351.1026022556</v>
+        <v>122246.5533414896</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.852336035891639e-06</v>
+        <v>1.391261122238804e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.448958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>97105.66403814242</v>
+        <v>110579.5138647251</v>
       </c>
     </row>
     <row r="3">
@@ -3479,28 +3479,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.66386913360984</v>
+        <v>84.55041383378943</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.790155569111</v>
+        <v>115.6856063083449</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.17088458149202</v>
+        <v>104.6447344080746</v>
       </c>
       <c r="AD3" t="n">
-        <v>73663.86913360984</v>
+        <v>84550.41383378944</v>
       </c>
       <c r="AE3" t="n">
-        <v>100790.155569111</v>
+        <v>115685.6063083449</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.199350937413024e-06</v>
+        <v>1.461717144651518e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.33125</v>
       </c>
       <c r="AH3" t="n">
-        <v>91170.88458149202</v>
+        <v>104644.7344080746</v>
       </c>
     </row>
   </sheetData>
@@ -3776,28 +3776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.22925050629996</v>
+        <v>93.23688624571506</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.1954911892053</v>
+        <v>127.5708210824521</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.63297413538766</v>
+        <v>115.3956409651485</v>
       </c>
       <c r="AD2" t="n">
-        <v>73229.25050629996</v>
+        <v>93236.88624571505</v>
       </c>
       <c r="AE2" t="n">
-        <v>100195.4911892053</v>
+        <v>127570.8210824521</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.564240010096694e-06</v>
+        <v>1.46172803485998e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.775</v>
       </c>
       <c r="AH2" t="n">
-        <v>90632.97413538766</v>
+        <v>115395.6409651485</v>
       </c>
     </row>
   </sheetData>
@@ -4073,28 +4073,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.8279269763009</v>
+        <v>199.5823876314842</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.5755266695434</v>
+        <v>273.0774277107909</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.6153360541441</v>
+        <v>247.0153012767299</v>
       </c>
       <c r="AD2" t="n">
-        <v>175827.9269763009</v>
+        <v>199582.3876314842</v>
       </c>
       <c r="AE2" t="n">
-        <v>240575.5266695434</v>
+        <v>273077.4277107909</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.256170995767773e-06</v>
+        <v>8.047413486243952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.660416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>217615.3360541441</v>
+        <v>247015.3012767299</v>
       </c>
     </row>
     <row r="3">
@@ -4179,28 +4179,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.38376922952084</v>
+        <v>98.17574821109194</v>
       </c>
       <c r="AB3" t="n">
-        <v>118.1940840427151</v>
+        <v>134.3283899106896</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.9138065481479</v>
+        <v>121.5082769087286</v>
       </c>
       <c r="AD3" t="n">
-        <v>86383.76922952084</v>
+        <v>98175.74821109194</v>
       </c>
       <c r="AE3" t="n">
-        <v>118194.0840427151</v>
+        <v>134328.3899106896</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.750378729846737e-06</v>
+        <v>1.276337085183852e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.308333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>106913.8065481479</v>
+        <v>121508.2769087286</v>
       </c>
     </row>
     <row r="4">
@@ -4285,28 +4285,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.96927098159722</v>
+        <v>91.76124996316831</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.4174845522199</v>
+        <v>125.5517904201945</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.9748333949881</v>
+        <v>113.5693037555688</v>
       </c>
       <c r="AD4" t="n">
-        <v>79969.27098159722</v>
+        <v>91761.24996316832</v>
       </c>
       <c r="AE4" t="n">
-        <v>109417.4845522199</v>
+        <v>125551.7904201944</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.138187127907945e-06</v>
+        <v>1.349662488127947e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.182291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>98974.83339498809</v>
+        <v>113569.3037555687</v>
       </c>
     </row>
   </sheetData>
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.73451640784717</v>
+        <v>94.24835352287283</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.2550624033459</v>
+        <v>128.9547552338456</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.49598276347771</v>
+        <v>116.6474943834972</v>
       </c>
       <c r="AD2" t="n">
-        <v>74734.51640784717</v>
+        <v>94248.35352287283</v>
       </c>
       <c r="AE2" t="n">
-        <v>102255.0624033459</v>
+        <v>128954.7552338456</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.219962164675445e-06</v>
+        <v>1.425967843369952e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.997916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>92495.98276347772</v>
+        <v>116647.4943834973</v>
       </c>
     </row>
   </sheetData>
@@ -4879,28 +4879,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.0682651388272</v>
+        <v>130.7735056175692</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.8637679982555</v>
+        <v>178.9300797057694</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.751857508644</v>
+        <v>161.8532440286449</v>
       </c>
       <c r="AD2" t="n">
-        <v>108068.2651388272</v>
+        <v>130773.5056175692</v>
       </c>
       <c r="AE2" t="n">
-        <v>147863.7679982555</v>
+        <v>178930.0797057694</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.558287649270596e-06</v>
+        <v>1.089416697740089e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.913541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>133751.857508644</v>
+        <v>161853.2440286449</v>
       </c>
     </row>
     <row r="3">
@@ -4985,28 +4985,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.10711295639418</v>
+        <v>87.41715227703045</v>
       </c>
       <c r="AB3" t="n">
-        <v>104.133109555753</v>
+        <v>119.6080043179595</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.19479173151539</v>
+        <v>108.192784256773</v>
       </c>
       <c r="AD3" t="n">
-        <v>76107.11295639418</v>
+        <v>87417.15227703046</v>
       </c>
       <c r="AE3" t="n">
-        <v>104133.109555753</v>
+        <v>119608.0043179595</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.212386287280515e-06</v>
+        <v>1.413617744836603e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.245833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>94194.79173151539</v>
+        <v>108192.784256773</v>
       </c>
     </row>
   </sheetData>
@@ -5282,28 +5282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.7824966277984</v>
+        <v>156.4284634023539</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.0977992390201</v>
+        <v>214.0323247637519</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.1916233117116</v>
+        <v>193.6053800846152</v>
       </c>
       <c r="AD2" t="n">
-        <v>144782.4966277984</v>
+        <v>156428.4634023539</v>
       </c>
       <c r="AE2" t="n">
-        <v>198097.7992390201</v>
+        <v>214032.3247637519</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.858404988600832e-06</v>
+        <v>9.34127024148418e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.266666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>179191.6233117116</v>
+        <v>193605.3800846152</v>
       </c>
     </row>
     <row r="3">
@@ -5388,28 +5388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.1233017252286</v>
+        <v>89.68392764521244</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.8917479772417</v>
+        <v>122.7095063797759</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.69014957383141</v>
+        <v>110.9982833147962</v>
       </c>
       <c r="AD3" t="n">
-        <v>78123.30172522859</v>
+        <v>89683.92764521243</v>
       </c>
       <c r="AE3" t="n">
-        <v>106891.7479772417</v>
+        <v>122709.5063797759</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.17654516754565e-06</v>
+        <v>1.379836550628265e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.211458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>96690.14957383141</v>
+        <v>110998.2833147962</v>
       </c>
     </row>
     <row r="4">
@@ -5494,28 +5494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.97089329472186</v>
+        <v>89.53151921470568</v>
       </c>
       <c r="AB4" t="n">
-        <v>106.6832160388371</v>
+        <v>122.5009744413713</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.50151963095165</v>
+        <v>110.8096533719164</v>
       </c>
       <c r="AD4" t="n">
-        <v>77970.89329472186</v>
+        <v>89531.51921470568</v>
       </c>
       <c r="AE4" t="n">
-        <v>106683.2160388371</v>
+        <v>122500.9744413713</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.200159240083533e-06</v>
+        <v>1.384376835631181e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.204166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>96501.51963095165</v>
+        <v>110809.6533719164</v>
       </c>
     </row>
   </sheetData>
@@ -5791,28 +5791,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.068197015373</v>
+        <v>254.1686565480912</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.7894570487956</v>
+        <v>347.7647690186791</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.7463930779296</v>
+        <v>314.574587554559</v>
       </c>
       <c r="AD2" t="n">
-        <v>230068.197015373</v>
+        <v>254168.6565480912</v>
       </c>
       <c r="AE2" t="n">
-        <v>314789.4570487955</v>
+        <v>347764.7690186791</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.695382403567324e-06</v>
+        <v>6.884217136304428e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.144791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>284746.3930779296</v>
+        <v>314574.587554559</v>
       </c>
     </row>
     <row r="3">
@@ -5897,28 +5897,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.3511650489735</v>
+        <v>113.5293613429145</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.6731353177808</v>
+        <v>155.3358807512448</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.4383659120569</v>
+        <v>140.5108423076665</v>
       </c>
       <c r="AD3" t="n">
-        <v>101351.1650489735</v>
+        <v>113529.3613429145</v>
       </c>
       <c r="AE3" t="n">
-        <v>138673.1353177808</v>
+        <v>155335.8807512448</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.089366706395657e-06</v>
+        <v>1.134402831732457e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.515625</v>
       </c>
       <c r="AH3" t="n">
-        <v>125438.3659120569</v>
+        <v>140510.8423076665</v>
       </c>
     </row>
     <row r="4">
@@ -6003,28 +6003,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.42496013934638</v>
+        <v>93.43256423269519</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.4092226783245</v>
+        <v>127.8385563369417</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.7764828297599</v>
+        <v>115.6378239427185</v>
       </c>
       <c r="AD4" t="n">
-        <v>81424.96013934638</v>
+        <v>93432.56423269518</v>
       </c>
       <c r="AE4" t="n">
-        <v>111409.2226783245</v>
+        <v>127838.5563369417</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.117985883194441e-06</v>
+        <v>1.326026782661424e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.152083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>100776.4828297599</v>
+        <v>115637.8239427185</v>
       </c>
     </row>
     <row r="5">
@@ -6109,28 +6109,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.66510935966281</v>
+        <v>93.67271345301161</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.7378054361972</v>
+        <v>128.1671390948143</v>
       </c>
       <c r="AC5" t="n">
-        <v>101.0737061103901</v>
+        <v>115.9350472233486</v>
       </c>
       <c r="AD5" t="n">
-        <v>81665.10935966281</v>
+        <v>93672.71345301162</v>
       </c>
       <c r="AE5" t="n">
-        <v>111737.8054361972</v>
+        <v>128167.1390948143</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.117544731295885e-06</v>
+        <v>1.325944599408703e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.152083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>101073.7061103901</v>
+        <v>115935.0472233486</v>
       </c>
     </row>
   </sheetData>
@@ -6406,28 +6406,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.81805397226778</v>
+        <v>97.02387831594829</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.4200474701461</v>
+        <v>132.7523507032415</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.2136429396975</v>
+        <v>120.0826526712539</v>
       </c>
       <c r="AD2" t="n">
-        <v>85818.05397226778</v>
+        <v>97023.8783159483</v>
       </c>
       <c r="AE2" t="n">
-        <v>117420.0474701461</v>
+        <v>132752.3507032415</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.470675793528031e-06</v>
+        <v>1.297045251295885e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.561458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>106213.6429396975</v>
+        <v>120082.6526712539</v>
       </c>
     </row>
     <row r="3">
@@ -6512,28 +6512,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.57803144551306</v>
+        <v>85.61326358860137</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.0409527742512</v>
+        <v>117.1398442324998</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.30230745687896</v>
+        <v>105.9601819057843</v>
       </c>
       <c r="AD3" t="n">
-        <v>74578.03144551306</v>
+        <v>85613.26358860137</v>
       </c>
       <c r="AE3" t="n">
-        <v>102040.9527742512</v>
+        <v>117139.8442324998</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.204222680580146e-06</v>
+        <v>1.444084530779715e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="AH3" t="n">
-        <v>92302.30745687896</v>
+        <v>105960.1819057843</v>
       </c>
     </row>
   </sheetData>
@@ -6809,28 +6809,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.88887999103103</v>
+        <v>83.44887765188236</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.72978123412724</v>
+        <v>114.1784359079138</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.21171088479407</v>
+        <v>103.2814062353333</v>
       </c>
       <c r="AD2" t="n">
-        <v>72888.87999103103</v>
+        <v>83448.87765188236</v>
       </c>
       <c r="AE2" t="n">
-        <v>99729.78123412725</v>
+        <v>114178.4359079138</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.047038028106976e-06</v>
+        <v>1.474284426187864e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="AH2" t="n">
-        <v>90211.71088479407</v>
+        <v>103281.4062353333</v>
       </c>
     </row>
     <row r="3">
@@ -6915,28 +6915,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.96398565231135</v>
+        <v>83.52398331316267</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.83254411331885</v>
+        <v>114.2811987871054</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.30466621902428</v>
+        <v>103.3743615695634</v>
       </c>
       <c r="AD3" t="n">
-        <v>72963.98565231136</v>
+        <v>83523.98331316268</v>
       </c>
       <c r="AE3" t="n">
-        <v>99832.54411331884</v>
+        <v>114281.1987871054</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.066095273803208e-06</v>
+        <v>1.478271321167561e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.442708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>90304.66621902428</v>
+        <v>103374.3615695635</v>
       </c>
     </row>
   </sheetData>
@@ -11569,28 +11569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.41050308658674</v>
+        <v>82.76122914405222</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.07524484896736</v>
+        <v>113.23756488259</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.61964253358606</v>
+        <v>102.4303306201453</v>
       </c>
       <c r="AD2" t="n">
-        <v>72410.50308658674</v>
+        <v>82761.22914405222</v>
       </c>
       <c r="AE2" t="n">
-        <v>99075.24484896736</v>
+        <v>113237.56488259</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.807961488714199e-06</v>
+        <v>1.479952636320441e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.622916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>89619.64253358605</v>
+        <v>102430.3306201453</v>
       </c>
     </row>
   </sheetData>
@@ -11866,28 +11866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.0757647025862</v>
+        <v>106.9299271840749</v>
       </c>
       <c r="AB2" t="n">
-        <v>120.509146894534</v>
+        <v>146.306243788638</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.0079230506011</v>
+        <v>132.3429812235929</v>
       </c>
       <c r="AD2" t="n">
-        <v>88075.7647025862</v>
+        <v>106929.9271840749</v>
       </c>
       <c r="AE2" t="n">
-        <v>120509.146894534</v>
+        <v>146306.243788638</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.645948508761471e-06</v>
+        <v>1.342904076275201e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.394791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>109007.9230506011</v>
+        <v>132342.9812235929</v>
       </c>
     </row>
   </sheetData>
@@ -12163,28 +12163,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.0162750725503</v>
+        <v>143.5396208822548</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.6304917011925</v>
+        <v>196.3972418121601</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.3913710897686</v>
+        <v>177.6533646989232</v>
       </c>
       <c r="AD2" t="n">
-        <v>132016.2750725503</v>
+        <v>143539.6208822548</v>
       </c>
       <c r="AE2" t="n">
-        <v>180630.4917011925</v>
+        <v>196397.2418121601</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.180947843152996e-06</v>
+        <v>1.005403441379473e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>163391.3710897686</v>
+        <v>177653.3646989232</v>
       </c>
     </row>
     <row r="3">
@@ -12269,28 +12269,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.74460401533486</v>
+        <v>88.18260897046771</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.0053529467158</v>
+        <v>120.6553359354858</v>
       </c>
       <c r="AC3" t="n">
-        <v>94.98378943744629</v>
+        <v>109.1401600146621</v>
       </c>
       <c r="AD3" t="n">
-        <v>76744.60401533486</v>
+        <v>88182.60897046771</v>
       </c>
       <c r="AE3" t="n">
-        <v>105005.3529467158</v>
+        <v>120655.3359354858</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.22218374607443e-06</v>
+        <v>1.401521229783146e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.219791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>94983.78943744629</v>
+        <v>109140.1600146621</v>
       </c>
     </row>
     <row r="4">
@@ -12375,28 +12375,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.00865142102123</v>
+        <v>88.44665637615408</v>
       </c>
       <c r="AB4" t="n">
-        <v>105.3666342561251</v>
+        <v>121.0166172448951</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.31059056574719</v>
+        <v>109.466961142963</v>
       </c>
       <c r="AD4" t="n">
-        <v>77008.65142102123</v>
+        <v>88446.65637615407</v>
       </c>
       <c r="AE4" t="n">
-        <v>105366.6342561251</v>
+        <v>121016.6172448951</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.22141439740003e-06</v>
+        <v>1.401371931656957e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.219791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>95310.59056574719</v>
+        <v>109466.961142963</v>
       </c>
     </row>
   </sheetData>
@@ -12672,28 +12672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.6332194747603</v>
+        <v>219.6068808830089</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.6740016137609</v>
+        <v>300.4758227958069</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.1275705826427</v>
+        <v>271.7988319887298</v>
       </c>
       <c r="AD2" t="n">
-        <v>195633.2194747603</v>
+        <v>219606.8808830089</v>
       </c>
       <c r="AE2" t="n">
-        <v>267674.0016137609</v>
+        <v>300475.8227958069</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.965137235538186e-06</v>
+        <v>7.440152696651031e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.894791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>242127.5705826427</v>
+        <v>271798.8319887298</v>
       </c>
     </row>
     <row r="3">
@@ -12778,28 +12778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.58375779440068</v>
+        <v>105.4853371525044</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.0454260382562</v>
+        <v>144.32969197663</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.8249502900831</v>
+        <v>130.5550687424144</v>
       </c>
       <c r="AD3" t="n">
-        <v>93583.75779440068</v>
+        <v>105485.3371525044</v>
       </c>
       <c r="AE3" t="n">
-        <v>128045.4260382562</v>
+        <v>144329.69197663</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.411802762559936e-06</v>
+        <v>1.203105687911452e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.409375</v>
       </c>
       <c r="AH3" t="n">
-        <v>115824.9502900831</v>
+        <v>130555.0687424144</v>
       </c>
     </row>
     <row r="4">
@@ -12884,28 +12884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.80255188449041</v>
+        <v>92.70413124259416</v>
       </c>
       <c r="AB4" t="n">
-        <v>110.5576162453168</v>
+        <v>126.8418821836905</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.006152519481</v>
+        <v>114.7362709718123</v>
       </c>
       <c r="AD4" t="n">
-        <v>80802.55188449041</v>
+        <v>92704.13124259416</v>
       </c>
       <c r="AE4" t="n">
-        <v>110557.6162453168</v>
+        <v>126841.8821836905</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.121441039775019e-06</v>
+        <v>1.336261662805521e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.16875</v>
       </c>
       <c r="AH4" t="n">
-        <v>100006.152519481</v>
+        <v>114736.2709718123</v>
       </c>
     </row>
   </sheetData>
@@ -13181,28 +13181,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.734186187567</v>
+        <v>123.969320768013</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.670178204847</v>
+        <v>169.6202938151612</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.8630594428859</v>
+        <v>153.4319710370669</v>
       </c>
       <c r="AD2" t="n">
-        <v>105734.186187567</v>
+        <v>123969.320768013</v>
       </c>
       <c r="AE2" t="n">
-        <v>144670.178204847</v>
+        <v>169620.2938151612</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.675818216576974e-06</v>
+        <v>1.16938665140044e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.244791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>130863.0594428859</v>
+        <v>153431.9710370669</v>
       </c>
     </row>
   </sheetData>
@@ -13478,28 +13478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.96204135784907</v>
+        <v>84.69073698617127</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.198127960745</v>
+        <v>115.8776026360542</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.53992066066152</v>
+        <v>104.818406875736</v>
       </c>
       <c r="AD2" t="n">
-        <v>73962.04135784907</v>
+        <v>84690.73698617128</v>
       </c>
       <c r="AE2" t="n">
-        <v>101198.127960745</v>
+        <v>115877.6026360542</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.076594434873754e-06</v>
+        <v>1.457271385955367e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.404166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>91539.92066066152</v>
+        <v>104818.406875736</v>
       </c>
     </row>
     <row r="3">
@@ -13584,28 +13584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.03486820491493</v>
+        <v>83.76356383323713</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.92952874890855</v>
+        <v>114.6090034242177</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.39239477711212</v>
+        <v>103.6708809921866</v>
       </c>
       <c r="AD3" t="n">
-        <v>73034.86820491494</v>
+        <v>83763.56383323713</v>
       </c>
       <c r="AE3" t="n">
-        <v>99929.52874890855</v>
+        <v>114609.0034242177</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.163796498522596e-06</v>
+        <v>1.475228762673959e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>90392.39477711212</v>
+        <v>103670.8809921865</v>
       </c>
     </row>
   </sheetData>
@@ -13881,28 +13881,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.08642241115849</v>
+        <v>119.5236962141337</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.8379262935588</v>
+        <v>163.5375941734333</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.1600610473375</v>
+        <v>147.9297957120209</v>
       </c>
       <c r="AD2" t="n">
-        <v>97086.42241115849</v>
+        <v>119523.6962141337</v>
       </c>
       <c r="AE2" t="n">
-        <v>132837.9262935588</v>
+        <v>163537.5941734333</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.960310726964804e-06</v>
+        <v>1.180847291355142e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.747916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>120160.0610473375</v>
+        <v>147929.7957120209</v>
       </c>
     </row>
     <row r="3">
@@ -13987,28 +13987,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.08944579497812</v>
+        <v>86.26550177773095</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.7406924491977</v>
+        <v>118.0322652975845</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.93526495933961</v>
+        <v>106.7674315569385</v>
       </c>
       <c r="AD3" t="n">
-        <v>75089.44579497812</v>
+        <v>86265.50177773094</v>
       </c>
       <c r="AE3" t="n">
-        <v>102740.6924491977</v>
+        <v>118032.2652975845</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.227210854579745e-06</v>
+        <v>1.431843531759778e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>92935.26495933961</v>
+        <v>106767.4315569385</v>
       </c>
     </row>
   </sheetData>
